--- a/biology/Botanique/Delphinium_elatum/Delphinium_elatum.xlsx
+++ b/biology/Botanique/Delphinium_elatum/Delphinium_elatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delphinium elatum, la dauphinelle élevée, est une espèce de plante vivace de la famille des Renonculacées, originaire d'Europe et d'Asie occidentale.
 Autre nom vernaculaire : pied-d'alouette élevé. Le terme de pied-d'alouette désigne aussi bien les espèces du genre Delphinium (fruit à plusieurs follicules) que du genre Consolida (à un seul follicule).
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dauphinelle élevée est une plante vivace, de 1 à 2 mètres de hauteur, robuste[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dauphinelle élevée est une plante vivace, de 1 à 2 mètres de hauteur, robuste.
 Les feuilles de contour arrondi ou pentagonal sont palmatiséquées, à 5-7 lobes trifides, à marge incisée-dentée. Parfois, elles sont entières et lancéolées vers le haut de la tige.
 L'inflorescence est un racème terminal, dressé, portant de 25 à une centaine de fleurs bleues. Le pédicelle est muni au sommet de 2 bractées linéaires. La fleur à symétrie bilatérale (dite zygomorphe) est composée de :
 5 sépales pétaloïdes, libres, bleus, avec le sépale supérieur prolongé à l'arrière par un long éperon,
@@ -551,7 +565,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Delphinium elatum croît dans les prairies fraîches de hautes montagnes des Alpes de Haute-Savoie et dans toutes les Alpes d'Europe. C'est une espèce protégée.
 On le rencontre aussi dans l'Europe du Sud (Italie, ex-Yougoslavie, Roumanie), dans l'Europe centrale (Autriche, Tchéquie, Pologne) et de l'est (Pays Baltes) jusqu'au Caucase, en Sibérie, Mongolie, Kazakhstan ainsi qu'en Inde et Chine (Xinjiang).
@@ -584,12 +600,14 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les substances responsables de la toxicité de D. elatum sont des alcaloïdes diterpéniques et norditerpéniques[2]. Les alcaloïdes issus de diterpènes ont un squelette à 20 atomes de carbone, ceux issus de norditerpènes un squelette à 19 atomes de carbone.
-Il a été découvert un très grand nombre de ces alcaloïdes chez Delphinium elatum. Citons la delpheline, deltaline, deltamine, elatine. Les graines du cultivar "Pacific Giant" contiennent de la delelatine, elasine, isodelpheline, eladine, pacifidine, pacifiline[3] etc., à côté de 7 alcaloïdes lycoctoniniques (14-O-deacetylnudiculine, delpheline, deltaline, elatine, lycoctonine, méthyllycaconitine et nudicauline) et d'elanine, delectinine, ajaconine[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les substances responsables de la toxicité de D. elatum sont des alcaloïdes diterpéniques et norditerpéniques. Les alcaloïdes issus de diterpènes ont un squelette à 20 atomes de carbone, ceux issus de norditerpènes un squelette à 19 atomes de carbone.
+Il a été découvert un très grand nombre de ces alcaloïdes chez Delphinium elatum. Citons la delpheline, deltaline, deltamine, elatine. Les graines du cultivar "Pacific Giant" contiennent de la delelatine, elasine, isodelpheline, eladine, pacifidine, pacifiline etc., à côté de 7 alcaloïdes lycoctoniniques (14-O-deacetylnudiculine, delpheline, deltaline, elatine, lycoctonine, méthyllycaconitine et nudicauline) et d'elanine, delectinine, ajaconine.
 La méthyllycaconitine (MLA) est considérée comme la responsable principale de la toxicité des delphiniums. C'est un antagoniste des  récepteurs nicotiniques de l'acétylcholine dans les muscles et le cerveau, provoquant des difficultés respiratoires et des convulsions.
-Il est tenu pour responsable de l'empoisonnement du bétail broutant dans les alpages suisses[5] ou dans les montagnes d'Amérique du Nord[6],[7].
+Il est tenu pour responsable de l'empoisonnement du bétail broutant dans les alpages suisses ou dans les montagnes d'Amérique du Nord,.
 </t>
         </is>
       </c>
